--- a/AE Zaid/Bagerhat/2022-23/Protective Work Design/Sannashi to kanalia/Draft_Drawing/Sannashi_to_Khawlia_Input_selected.xlsx
+++ b/AE Zaid/Bagerhat/2022-23/Protective Work Design/Sannashi to kanalia/Draft_Drawing/Sannashi_to_Khawlia_Input_selected.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19980" windowHeight="7665" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19980" windowHeight="7665"/>
   </bookViews>
   <sheets>
     <sheet name="Headers" sheetId="18" r:id="rId1"/>
@@ -209,9 +209,6 @@
     <t>Clinet_Division</t>
   </si>
   <si>
-    <t>Satkhira O&amp;M Division-1</t>
-  </si>
-  <si>
     <t>Design_Month</t>
   </si>
   <si>
@@ -279,9 +276,6 @@
   </si>
   <si>
     <t>Typical Cross Section</t>
-  </si>
-  <si>
-    <t>Protection of Morrelganj Upazila Sadar and adjacent areas from erosion of  Pangusi river in Bagerhat District and  Re-excavation/Dredging of     Bishkhali river</t>
   </si>
   <si>
     <t>November,2022</t>
@@ -561,9 +555,6 @@
   </si>
   <si>
     <t>DC-8-XXXX-09/50</t>
-  </si>
-  <si>
-    <t>River Bank Protective Work From Sannashi to Khawlia From km 0.000 to km 4.500 = 4.500 km</t>
   </si>
   <si>
     <t>Typical Cross Section of From Sannashi to Khawlia Protective Work</t>
@@ -893,6 +884,15 @@
   <si>
     <t xml:space="preserve"> FOLLOWING CONSTRUCTION SEQUENCE  SHALL BE FOLLOWED  DURING EXECUTION OF THIS PROTECTIVE WORK:
 </t>
+  </si>
+  <si>
+    <t>Design of Protective Work along the Right Bank of Panguchi River From Sannashi to Khaulia From km 0.000 to km 4.500 = 4.500 km at Upazila: Morelgonj, District: Bagerhat Under Bagerhat O&amp;M Division, BWDB Bagerhat.</t>
+  </si>
+  <si>
+    <t>Bagerhat O&amp;M Division</t>
+  </si>
+  <si>
+    <t>Protection of Morrelganj Upazila Sadar and adjacent areas from erosion of  Pangusi river in Bagerhat District and  Re-excavation/Dredging of  Bishkhali river</t>
   </si>
 </sst>
 </file>
@@ -1440,8 +1440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1475,20 +1475,20 @@
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="25" t="s">
         <v>52</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="28.9" customHeight="1" x14ac:dyDescent="0.25">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="25" t="s">
         <v>53</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>179</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1520,23 +1520,23 @@
         <v>60</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>61</v>
+        <v>278</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B11" s="14" t="s">
         <v>63</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -1549,7 +1549,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
@@ -1589,7 +1589,7 @@
     </row>
     <row r="2" spans="1:20" ht="19.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="12" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="B2" s="12"/>
       <c r="C2"/>
@@ -1616,7 +1616,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C3"/>
       <c r="D3"/>
@@ -1642,7 +1642,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C4"/>
       <c r="D4"/>
@@ -1668,7 +1668,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C5"/>
       <c r="D5"/>
@@ -1694,7 +1694,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="C6"/>
       <c r="D6"/>
@@ -1720,7 +1720,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="C7"/>
       <c r="D7"/>
@@ -1746,7 +1746,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C8"/>
       <c r="D8"/>
@@ -1772,7 +1772,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C9"/>
       <c r="D9"/>
@@ -1798,7 +1798,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="C10"/>
       <c r="D10"/>
@@ -1824,7 +1824,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="C11"/>
       <c r="D11"/>
@@ -1850,7 +1850,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="C12"/>
       <c r="D12"/>
@@ -1876,7 +1876,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="C13"/>
       <c r="D13"/>
@@ -1902,7 +1902,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="C14"/>
       <c r="D14"/>
@@ -1928,7 +1928,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="C15"/>
       <c r="D15"/>
@@ -1954,7 +1954,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="C16"/>
       <c r="D16"/>
@@ -1980,7 +1980,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C17"/>
       <c r="D17"/>
@@ -2003,7 +2003,7 @@
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="B18"/>
       <c r="C18"/>
@@ -2028,7 +2028,7 @@
     <row r="19" spans="1:20" ht="61.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19"/>
       <c r="B19" s="29" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="C19"/>
       <c r="D19"/>
@@ -2051,7 +2051,7 @@
     </row>
     <row r="20" spans="1:20" ht="42" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B20" s="29" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="C20"/>
       <c r="D20"/>
@@ -2074,10 +2074,10 @@
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B21" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="C21"/>
       <c r="D21"/>
@@ -2103,7 +2103,7 @@
         <v>1</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="C22"/>
       <c r="D22"/>
@@ -2129,7 +2129,7 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="C23"/>
       <c r="D23"/>
@@ -2155,7 +2155,7 @@
         <v>3</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="C24"/>
       <c r="D24"/>
@@ -2178,7 +2178,7 @@
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B25"/>
       <c r="C25"/>
@@ -2205,7 +2205,7 @@
         <v>1</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="C26"/>
       <c r="D26"/>
@@ -2231,7 +2231,7 @@
         <v>2</v>
       </c>
       <c r="B27" s="29" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -2257,7 +2257,7 @@
         <v>3</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -2283,7 +2283,7 @@
         <v>4</v>
       </c>
       <c r="B29" s="29" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C29"/>
       <c r="D29"/>
@@ -2309,7 +2309,7 @@
         <v>5</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="C30"/>
       <c r="D30"/>
@@ -2332,7 +2332,7 @@
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
@@ -2359,7 +2359,7 @@
         <v>1</v>
       </c>
       <c r="B32" s="29" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="C32"/>
       <c r="D32"/>
@@ -2385,7 +2385,7 @@
         <v>2</v>
       </c>
       <c r="B33" s="29" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="C33"/>
       <c r="D33"/>
@@ -2411,7 +2411,7 @@
         <v>3</v>
       </c>
       <c r="B34" s="29" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C34"/>
       <c r="D34"/>
@@ -2437,7 +2437,7 @@
         <v>4</v>
       </c>
       <c r="B35" s="29" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="C35"/>
       <c r="D35"/>
@@ -2460,10 +2460,10 @@
     </row>
     <row r="36" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B36" s="29" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C36"/>
       <c r="D36"/>
@@ -2486,10 +2486,10 @@
     </row>
     <row r="37" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B37" s="29" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C37"/>
       <c r="D37"/>
@@ -2512,10 +2512,10 @@
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B38" s="29" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="C38"/>
       <c r="D38"/>
@@ -2538,10 +2538,10 @@
     </row>
     <row r="39" spans="1:20" ht="45" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B39" s="29" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="C39"/>
       <c r="D39"/>
@@ -2567,7 +2567,7 @@
         <v>6</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="C40"/>
       <c r="D40"/>
@@ -2593,7 +2593,7 @@
         <v>7</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="C41"/>
       <c r="D41"/>
@@ -2619,7 +2619,7 @@
         <v>8</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C42"/>
       <c r="D42"/>
@@ -2642,10 +2642,10 @@
     </row>
     <row r="43" spans="1:20" ht="30" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="C43"/>
       <c r="D43"/>
@@ -2668,10 +2668,10 @@
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B44" s="29" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C44"/>
       <c r="D44"/>
@@ -2694,10 +2694,10 @@
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B45" s="29" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C45"/>
       <c r="D45"/>
@@ -2720,10 +2720,10 @@
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B46" s="29" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C46"/>
       <c r="D46"/>
@@ -2746,7 +2746,7 @@
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B47"/>
       <c r="C47"/>
@@ -2773,7 +2773,7 @@
         <v>1</v>
       </c>
       <c r="B48" s="29" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C48"/>
       <c r="D48"/>
@@ -2799,7 +2799,7 @@
         <v>2</v>
       </c>
       <c r="B49" s="29" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="C49"/>
       <c r="D49"/>
@@ -2847,7 +2847,7 @@
         <v>3</v>
       </c>
       <c r="B51" s="29" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C51"/>
       <c r="D51"/>
@@ -2873,7 +2873,7 @@
         <v>4</v>
       </c>
       <c r="B52" s="29" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C52"/>
       <c r="D52"/>
@@ -58353,10 +58353,10 @@
         <v>9</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E2" s="6">
         <v>100000</v>
@@ -58368,19 +58368,19 @@
         <v>10000</v>
       </c>
       <c r="H2" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="J2" s="7">
         <v>50</v>
       </c>
       <c r="K2" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="L2" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M2" s="2" t="str">
         <f>CONCATENATE(L2,I2,"/",J2)</f>
@@ -58395,10 +58395,10 @@
         <v>10</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E3" s="6">
         <v>115000</v>
@@ -58410,19 +58410,19 @@
         <v>10000</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="I3" s="24" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="J3" s="7">
         <v>50</v>
       </c>
       <c r="K3" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="L3" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M3" s="2" t="str">
         <f t="shared" ref="M3:M51" si="0">CONCATENATE(L3,I3,"/",J3)</f>
@@ -58437,10 +58437,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E4" s="6">
         <v>130000</v>
@@ -58452,19 +58452,19 @@
         <v>10000</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="I4" s="24" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="J4" s="7">
         <v>50</v>
       </c>
       <c r="K4" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="L4" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M4" s="2" t="str">
         <f t="shared" si="0"/>
@@ -58476,13 +58476,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E5" s="6">
         <v>145000</v>
@@ -58494,19 +58494,19 @@
         <v>10000</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="I5" s="24" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="J5" s="7">
         <v>50</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="L5" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M5" s="2" t="str">
         <f t="shared" si="0"/>
@@ -58518,13 +58518,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E6" s="6">
         <v>160000</v>
@@ -58536,19 +58536,19 @@
         <v>10000</v>
       </c>
       <c r="H6" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="I6" s="24" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="J6" s="7">
         <v>50</v>
       </c>
       <c r="K6" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="L6" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M6" s="2" t="str">
         <f t="shared" si="0"/>
@@ -58560,13 +58560,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E7" s="6">
         <v>175000</v>
@@ -58578,19 +58578,19 @@
         <v>10000</v>
       </c>
       <c r="H7" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="I7" s="24" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="J7" s="7">
         <v>50</v>
       </c>
       <c r="K7" s="6" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="L7" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M7" s="2" t="str">
         <f t="shared" si="0"/>
@@ -58602,13 +58602,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E8" s="6">
         <v>190000</v>
@@ -58620,19 +58620,19 @@
         <v>10000</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="I8" s="24" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="J8" s="7">
         <v>50</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="L8" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M8" s="2" t="str">
         <f t="shared" si="0"/>
@@ -58644,13 +58644,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E9" s="6">
         <v>205000</v>
@@ -58662,19 +58662,19 @@
         <v>10000</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="I9" s="24" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="J9" s="7">
         <v>50</v>
       </c>
       <c r="K9" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="L9" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M9" s="2" t="str">
         <f t="shared" si="0"/>
@@ -58686,13 +58686,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E10" s="6">
         <v>220000</v>
@@ -58704,19 +58704,19 @@
         <v>10000</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="I10" s="24" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="J10" s="7">
         <v>50</v>
       </c>
       <c r="K10" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="L10" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M10" s="2" t="str">
         <f t="shared" si="0"/>
@@ -58728,13 +58728,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E11" s="6">
         <v>235000</v>
@@ -58746,7 +58746,7 @@
         <v>10000</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="I11" s="24">
         <v>10</v>
@@ -58755,10 +58755,10 @@
         <v>50</v>
       </c>
       <c r="K11" s="6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="L11" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M11" s="2" t="str">
         <f t="shared" si="0"/>
@@ -58770,13 +58770,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E12" s="6">
         <v>250000</v>
@@ -58788,7 +58788,7 @@
         <v>10000</v>
       </c>
       <c r="H12" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="I12" s="24">
         <v>11</v>
@@ -58797,10 +58797,10 @@
         <v>50</v>
       </c>
       <c r="K12" s="6" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="L12" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M12" s="2" t="str">
         <f t="shared" si="0"/>
@@ -58812,13 +58812,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E13" s="6">
         <v>265000</v>
@@ -58830,7 +58830,7 @@
         <v>10000</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="I13" s="24">
         <v>12</v>
@@ -58839,10 +58839,10 @@
         <v>50</v>
       </c>
       <c r="K13" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="L13" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M13" s="2" t="str">
         <f t="shared" si="0"/>
@@ -58854,13 +58854,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E14" s="6">
         <v>280000</v>
@@ -58872,7 +58872,7 @@
         <v>10000</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="I14" s="24">
         <v>13</v>
@@ -58881,10 +58881,10 @@
         <v>50</v>
       </c>
       <c r="K14" s="6" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="L14" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M14" s="2" t="str">
         <f t="shared" si="0"/>
@@ -58896,13 +58896,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E15" s="6">
         <v>295000</v>
@@ -58914,7 +58914,7 @@
         <v>10000</v>
       </c>
       <c r="H15" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I15" s="24">
         <v>14</v>
@@ -58923,10 +58923,10 @@
         <v>50</v>
       </c>
       <c r="K15" s="6" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="L15" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M15" s="2" t="str">
         <f t="shared" si="0"/>
@@ -58938,13 +58938,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E16" s="6">
         <v>310000</v>
@@ -58956,7 +58956,7 @@
         <v>10000</v>
       </c>
       <c r="H16" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="I16" s="24">
         <v>15</v>
@@ -58965,10 +58965,10 @@
         <v>50</v>
       </c>
       <c r="K16" s="6" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="L16" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M16" s="2" t="str">
         <f t="shared" si="0"/>
@@ -58980,13 +58980,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E17" s="6">
         <v>325000</v>
@@ -58998,7 +58998,7 @@
         <v>10000</v>
       </c>
       <c r="H17" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="I17" s="24">
         <v>16</v>
@@ -59007,10 +59007,10 @@
         <v>50</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="L17" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M17" s="2" t="str">
         <f t="shared" si="0"/>
@@ -59022,13 +59022,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E18" s="6">
         <v>340000</v>
@@ -59040,7 +59040,7 @@
         <v>10000</v>
       </c>
       <c r="H18" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="I18" s="24">
         <v>17</v>
@@ -59049,10 +59049,10 @@
         <v>50</v>
       </c>
       <c r="K18" s="6" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L18" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M18" s="2" t="str">
         <f t="shared" si="0"/>
@@ -59064,13 +59064,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E19" s="6">
         <v>355000</v>
@@ -59082,7 +59082,7 @@
         <v>10000</v>
       </c>
       <c r="H19" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I19" s="24">
         <v>18</v>
@@ -59091,10 +59091,10 @@
         <v>50</v>
       </c>
       <c r="K19" s="6" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="L19" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M19" s="2" t="str">
         <f t="shared" si="0"/>
@@ -59106,13 +59106,13 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E20" s="6">
         <v>370000</v>
@@ -59124,7 +59124,7 @@
         <v>10000</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="I20" s="24">
         <v>19</v>
@@ -59133,10 +59133,10 @@
         <v>50</v>
       </c>
       <c r="K20" s="6" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="L20" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M20" s="2" t="str">
         <f t="shared" si="0"/>
@@ -59148,13 +59148,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E21" s="6">
         <v>385000</v>
@@ -59166,7 +59166,7 @@
         <v>10000</v>
       </c>
       <c r="H21" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="I21" s="9">
         <v>20</v>
@@ -59175,10 +59175,10 @@
         <v>50</v>
       </c>
       <c r="K21" s="6" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="L21" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M21" s="2" t="str">
         <f t="shared" si="0"/>
@@ -59190,13 +59190,13 @@
         <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C22" s="6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E22" s="6">
         <v>400000</v>
@@ -59208,7 +59208,7 @@
         <v>10000</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="I22" s="9">
         <v>21</v>
@@ -59217,10 +59217,10 @@
         <v>50</v>
       </c>
       <c r="K22" s="6" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="L22" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M22" s="2" t="str">
         <f t="shared" si="0"/>
@@ -59232,13 +59232,13 @@
         <v>22</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C23" s="6" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E23" s="6">
         <v>415000</v>
@@ -59250,7 +59250,7 @@
         <v>10000</v>
       </c>
       <c r="H23" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="I23" s="9">
         <v>22</v>
@@ -59259,10 +59259,10 @@
         <v>50</v>
       </c>
       <c r="K23" s="6" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="L23" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M23" s="2" t="str">
         <f t="shared" si="0"/>
@@ -59274,13 +59274,13 @@
         <v>23</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E24" s="6">
         <v>430000</v>
@@ -59292,7 +59292,7 @@
         <v>10000</v>
       </c>
       <c r="H24" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="I24" s="9">
         <v>23</v>
@@ -59301,10 +59301,10 @@
         <v>50</v>
       </c>
       <c r="K24" s="6" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="L24" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M24" s="2" t="str">
         <f t="shared" si="0"/>
@@ -59316,13 +59316,13 @@
         <v>24</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C25" s="6" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E25" s="6">
         <v>445000</v>
@@ -59334,7 +59334,7 @@
         <v>10000</v>
       </c>
       <c r="H25" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="I25" s="9">
         <v>24</v>
@@ -59343,10 +59343,10 @@
         <v>50</v>
       </c>
       <c r="K25" s="6" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L25" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M25" s="2" t="str">
         <f t="shared" si="0"/>
@@ -59358,13 +59358,13 @@
         <v>25</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C26" s="6" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E26" s="6">
         <v>460000</v>
@@ -59376,7 +59376,7 @@
         <v>10000</v>
       </c>
       <c r="H26" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="I26" s="9">
         <v>25</v>
@@ -59385,10 +59385,10 @@
         <v>50</v>
       </c>
       <c r="K26" s="6" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="L26" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M26" s="2" t="str">
         <f t="shared" si="0"/>
@@ -59400,13 +59400,13 @@
         <v>26</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E27" s="6">
         <v>475000</v>
@@ -59418,7 +59418,7 @@
         <v>10000</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I27" s="9">
         <v>26</v>
@@ -59427,10 +59427,10 @@
         <v>50</v>
       </c>
       <c r="K27" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="L27" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M27" s="2" t="str">
         <f t="shared" si="0"/>
@@ -59442,13 +59442,13 @@
         <v>27</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E28" s="6">
         <v>490000</v>
@@ -59460,7 +59460,7 @@
         <v>10000</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="I28" s="9">
         <v>27</v>
@@ -59469,10 +59469,10 @@
         <v>50</v>
       </c>
       <c r="K28" s="6" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L28" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M28" s="2" t="str">
         <f t="shared" si="0"/>
@@ -59484,13 +59484,13 @@
         <v>28</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E29" s="6">
         <v>505000</v>
@@ -59502,7 +59502,7 @@
         <v>10000</v>
       </c>
       <c r="H29" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="I29" s="9">
         <v>28</v>
@@ -59511,10 +59511,10 @@
         <v>50</v>
       </c>
       <c r="K29" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L29" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M29" s="2" t="str">
         <f t="shared" si="0"/>
@@ -59526,13 +59526,13 @@
         <v>29</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E30" s="6">
         <v>520000</v>
@@ -59544,7 +59544,7 @@
         <v>10000</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="I30" s="9">
         <v>29</v>
@@ -59553,10 +59553,10 @@
         <v>50</v>
       </c>
       <c r="K30" s="6" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="L30" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M30" s="2" t="str">
         <f t="shared" si="0"/>
@@ -59568,13 +59568,13 @@
         <v>30</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E31" s="6">
         <v>535000</v>
@@ -59586,7 +59586,7 @@
         <v>10000</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="I31" s="9">
         <v>30</v>
@@ -59595,10 +59595,10 @@
         <v>50</v>
       </c>
       <c r="K31" s="6" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="L31" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M31" s="2" t="str">
         <f t="shared" si="0"/>
@@ -59610,13 +59610,13 @@
         <v>31</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E32" s="6">
         <v>550000</v>
@@ -59628,7 +59628,7 @@
         <v>10000</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="I32" s="9">
         <v>31</v>
@@ -59637,10 +59637,10 @@
         <v>50</v>
       </c>
       <c r="K32" s="6" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="L32" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M32" s="2" t="str">
         <f t="shared" si="0"/>
@@ -59652,13 +59652,13 @@
         <v>32</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D33" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E33" s="6">
         <v>565000</v>
@@ -59670,7 +59670,7 @@
         <v>10000</v>
       </c>
       <c r="H33" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="I33" s="9">
         <v>32</v>
@@ -59679,10 +59679,10 @@
         <v>50</v>
       </c>
       <c r="K33" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L33" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M33" s="2" t="str">
         <f t="shared" si="0"/>
@@ -59694,13 +59694,13 @@
         <v>33</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D34" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E34" s="6">
         <v>580000</v>
@@ -59712,7 +59712,7 @@
         <v>10000</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I34" s="9">
         <v>33</v>
@@ -59721,10 +59721,10 @@
         <v>50</v>
       </c>
       <c r="K34" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L34" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M34" s="2" t="str">
         <f t="shared" si="0"/>
@@ -59736,13 +59736,13 @@
         <v>34</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E35" s="6">
         <v>595000</v>
@@ -59754,7 +59754,7 @@
         <v>10000</v>
       </c>
       <c r="H35" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="I35" s="9">
         <v>34</v>
@@ -59763,10 +59763,10 @@
         <v>50</v>
       </c>
       <c r="K35" s="6" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L35" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M35" s="2" t="str">
         <f t="shared" si="0"/>
@@ -59778,13 +59778,13 @@
         <v>35</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E36" s="6">
         <v>610000</v>
@@ -59796,7 +59796,7 @@
         <v>10000</v>
       </c>
       <c r="H36" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="I36" s="9">
         <v>35</v>
@@ -59805,10 +59805,10 @@
         <v>50</v>
       </c>
       <c r="K36" s="6" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="L36" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M36" s="2" t="str">
         <f t="shared" si="0"/>
@@ -59820,13 +59820,13 @@
         <v>36</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E37" s="6">
         <v>625000</v>
@@ -59838,7 +59838,7 @@
         <v>10000</v>
       </c>
       <c r="H37" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="I37" s="9">
         <v>36</v>
@@ -59847,10 +59847,10 @@
         <v>50</v>
       </c>
       <c r="K37" s="6" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="L37" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M37" s="2" t="str">
         <f t="shared" si="0"/>
@@ -59862,13 +59862,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E38" s="6">
         <v>640000</v>
@@ -59880,7 +59880,7 @@
         <v>10000</v>
       </c>
       <c r="H38" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I38" s="9">
         <v>37</v>
@@ -59889,10 +59889,10 @@
         <v>50</v>
       </c>
       <c r="K38" s="6" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="L38" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M38" s="2" t="str">
         <f t="shared" si="0"/>
@@ -59904,13 +59904,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E39" s="6">
         <v>655000</v>
@@ -59922,7 +59922,7 @@
         <v>10000</v>
       </c>
       <c r="H39" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I39" s="9">
         <v>38</v>
@@ -59931,10 +59931,10 @@
         <v>50</v>
       </c>
       <c r="K39" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="L39" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M39" s="2" t="str">
         <f t="shared" si="0"/>
@@ -59946,13 +59946,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E40" s="6">
         <v>670000</v>
@@ -59964,7 +59964,7 @@
         <v>10000</v>
       </c>
       <c r="H40" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="I40" s="9">
         <v>39</v>
@@ -59973,10 +59973,10 @@
         <v>50</v>
       </c>
       <c r="K40" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="L40" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M40" s="2" t="str">
         <f t="shared" si="0"/>
@@ -59988,13 +59988,13 @@
         <v>40</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E41" s="6">
         <v>685000</v>
@@ -60006,7 +60006,7 @@
         <v>10000</v>
       </c>
       <c r="H41" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="I41" s="9">
         <v>40</v>
@@ -60015,10 +60015,10 @@
         <v>50</v>
       </c>
       <c r="K41" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="L41" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M41" s="2" t="str">
         <f t="shared" si="0"/>
@@ -60030,13 +60030,13 @@
         <v>41</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E42" s="6">
         <v>700000</v>
@@ -60048,7 +60048,7 @@
         <v>10000</v>
       </c>
       <c r="H42" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I42" s="9">
         <v>41</v>
@@ -60057,10 +60057,10 @@
         <v>50</v>
       </c>
       <c r="K42" s="6" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="L42" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M42" s="2" t="str">
         <f t="shared" si="0"/>
@@ -60072,13 +60072,13 @@
         <v>42</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E43" s="6">
         <v>715000</v>
@@ -60090,7 +60090,7 @@
         <v>10000</v>
       </c>
       <c r="H43" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="I43" s="9">
         <v>42</v>
@@ -60099,10 +60099,10 @@
         <v>50</v>
       </c>
       <c r="K43" s="6" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L43" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M43" s="2" t="str">
         <f t="shared" si="0"/>
@@ -60114,13 +60114,13 @@
         <v>43</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E44" s="6">
         <v>730000</v>
@@ -60132,7 +60132,7 @@
         <v>10000</v>
       </c>
       <c r="H44" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="I44" s="9">
         <v>43</v>
@@ -60141,10 +60141,10 @@
         <v>50</v>
       </c>
       <c r="K44" s="6" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="L44" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M44" s="2" t="str">
         <f t="shared" si="0"/>
@@ -60156,13 +60156,13 @@
         <v>44</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E45" s="6">
         <v>745000</v>
@@ -60174,7 +60174,7 @@
         <v>10000</v>
       </c>
       <c r="H45" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I45" s="9">
         <v>44</v>
@@ -60183,10 +60183,10 @@
         <v>50</v>
       </c>
       <c r="K45" s="6" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L45" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M45" s="2" t="str">
         <f t="shared" si="0"/>
@@ -60198,13 +60198,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E46" s="6">
         <v>760000</v>
@@ -60216,7 +60216,7 @@
         <v>10000</v>
       </c>
       <c r="H46" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="I46" s="9">
         <v>45</v>
@@ -60225,10 +60225,10 @@
         <v>50</v>
       </c>
       <c r="K46" s="6" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L46" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M46" s="2" t="str">
         <f t="shared" si="0"/>
@@ -60240,13 +60240,13 @@
         <v>46</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E47" s="6">
         <v>775000</v>
@@ -60258,7 +60258,7 @@
         <v>10000</v>
       </c>
       <c r="H47" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I47" s="9">
         <v>46</v>
@@ -60267,10 +60267,10 @@
         <v>50</v>
       </c>
       <c r="K47" s="6" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L47" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M47" s="2" t="str">
         <f t="shared" si="0"/>
@@ -60282,13 +60282,13 @@
         <v>47</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E48" s="6">
         <v>790000</v>
@@ -60300,7 +60300,7 @@
         <v>10000</v>
       </c>
       <c r="H48" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I48" s="9">
         <v>47</v>
@@ -60309,10 +60309,10 @@
         <v>50</v>
       </c>
       <c r="K48" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="L48" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M48" s="2" t="str">
         <f t="shared" si="0"/>
@@ -60324,13 +60324,13 @@
         <v>48</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E49" s="6">
         <v>805000</v>
@@ -60342,7 +60342,7 @@
         <v>10000</v>
       </c>
       <c r="H49" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I49" s="9">
         <v>48</v>
@@ -60351,10 +60351,10 @@
         <v>50</v>
       </c>
       <c r="K49" s="6" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L49" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M49" s="2" t="str">
         <f t="shared" si="0"/>
@@ -60366,13 +60366,13 @@
         <v>49</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C50" s="6" t="s">
+        <v>165</v>
+      </c>
+      <c r="D50" s="9" t="s">
         <v>167</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>169</v>
       </c>
       <c r="E50" s="6">
         <v>820000</v>
@@ -60384,7 +60384,7 @@
         <v>10000</v>
       </c>
       <c r="H50" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="I50" s="9">
         <v>49</v>
@@ -60393,10 +60393,10 @@
         <v>50</v>
       </c>
       <c r="K50" s="6" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="L50" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M50" s="2" t="str">
         <f t="shared" si="0"/>
@@ -60408,13 +60408,13 @@
         <v>49</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="E51" s="6">
         <v>835000</v>
@@ -60426,7 +60426,7 @@
         <v>10000</v>
       </c>
       <c r="H51" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="I51" s="9">
         <v>50</v>
@@ -60435,10 +60435,10 @@
         <v>50</v>
       </c>
       <c r="K51" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="L51" s="20" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="M51" s="2" t="str">
         <f t="shared" si="0"/>
@@ -60612,7 +60612,7 @@
         <v>26</v>
       </c>
       <c r="S2" s="27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="T2" s="27">
         <v>0.4</v>
@@ -60689,7 +60689,7 @@
         <v>26</v>
       </c>
       <c r="S3" s="27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="T3" s="27">
         <v>2</v>
@@ -60766,7 +60766,7 @@
         <v>26</v>
       </c>
       <c r="S4" s="27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="T4" s="27">
         <v>2.5</v>
@@ -60843,7 +60843,7 @@
         <v>26</v>
       </c>
       <c r="S5" s="27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="T5" s="27">
         <v>2.9</v>
@@ -60920,7 +60920,7 @@
         <v>26</v>
       </c>
       <c r="S6" s="27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="T6" s="27">
         <v>4.2</v>
@@ -61122,7 +61122,7 @@
         <v>26</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="T2" s="2">
         <v>102.2</v>
@@ -61163,7 +61163,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -61171,7 +61171,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -61179,7 +61179,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -61187,7 +61187,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -61195,7 +61195,7 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -61203,7 +61203,7 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -61211,7 +61211,7 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -61219,7 +61219,7 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -61227,7 +61227,7 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -61235,7 +61235,7 @@
         <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -61243,7 +61243,7 @@
         <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -61251,7 +61251,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -61259,7 +61259,7 @@
         <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -61267,7 +61267,7 @@
         <v>13</v>
       </c>
       <c r="B27" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -61275,7 +61275,7 @@
         <v>14</v>
       </c>
       <c r="B29" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
@@ -61283,7 +61283,7 @@
         <v>15</v>
       </c>
       <c r="B31" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -61291,57 +61291,57 @@
         <v>16</v>
       </c>
       <c r="B33" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -61349,12 +61349,12 @@
         <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -61362,7 +61362,7 @@
         <v>2</v>
       </c>
       <c r="B53" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
@@ -61370,7 +61370,7 @@
         <v>3</v>
       </c>
       <c r="B55" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
@@ -61378,17 +61378,17 @@
         <v>1</v>
       </c>
       <c r="B57" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -61396,22 +61396,22 @@
         <v>2</v>
       </c>
       <c r="B60" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -61419,12 +61419,12 @@
         <v>3</v>
       </c>
       <c r="B64" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
@@ -61432,7 +61432,7 @@
         <v>4</v>
       </c>
       <c r="B66" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
@@ -61440,22 +61440,22 @@
         <v>5</v>
       </c>
       <c r="B67" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
@@ -61463,7 +61463,7 @@
         <v>1</v>
       </c>
       <c r="B73" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.25">
@@ -61471,7 +61471,7 @@
         <v>2</v>
       </c>
       <c r="B74" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
@@ -61479,7 +61479,7 @@
         <v>3</v>
       </c>
       <c r="B75" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
@@ -61487,39 +61487,39 @@
         <v>4</v>
       </c>
       <c r="B76" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B78" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B79" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B80" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B81" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
@@ -61527,7 +61527,7 @@
         <v>6</v>
       </c>
       <c r="B83" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -61535,7 +61535,7 @@
         <v>7</v>
       </c>
       <c r="B84" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
@@ -61543,54 +61543,54 @@
         <v>8</v>
       </c>
       <c r="B85" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="B87" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B89" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B90" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="B91" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
@@ -61598,7 +61598,7 @@
         <v>1</v>
       </c>
       <c r="B95" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -61606,7 +61606,7 @@
         <v>2</v>
       </c>
       <c r="B97" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -61614,7 +61614,7 @@
         <v>3</v>
       </c>
       <c r="B99" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -61622,7 +61622,7 @@
         <v>4</v>
       </c>
       <c r="B101" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>

--- a/AE Zaid/Bagerhat/2022-23/Protective Work Design/Sannashi to kanalia/Draft_Drawing/Sannashi_to_Khawlia_Input_selected.xlsx
+++ b/AE Zaid/Bagerhat/2022-23/Protective Work Design/Sannashi to kanalia/Draft_Drawing/Sannashi_to_Khawlia_Input_selected.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19980" windowHeight="7665"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19980" windowHeight="7665" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Headers" sheetId="18" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="282">
   <si>
     <t>SL</t>
   </si>
@@ -894,15 +894,28 @@
   <si>
     <t>Protection of Morrelganj Upazila Sadar and adjacent areas from erosion of  Pangusi river in Bagerhat District and  Re-excavation/Dredging of  Bishkhali river</t>
   </si>
+  <si>
+    <t>350x350x350</t>
+  </si>
+  <si>
+    <t>500X500X200</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF00B050"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -985,7 +998,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1068,11 +1081,84 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1440,7 +1526,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1549,7 +1635,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T85"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
@@ -60455,8 +60541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y6"/>
   <sheetViews>
-    <sheetView topLeftCell="S1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="V7" sqref="V7"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -60567,19 +60653,19 @@
         <v>0</v>
       </c>
       <c r="D2" s="27">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="E2" s="27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F2" s="27">
         <v>45</v>
       </c>
       <c r="G2" s="27">
-        <v>22.5</v>
+        <v>20</v>
       </c>
       <c r="H2" s="27">
-        <v>22.5</v>
+        <v>25</v>
       </c>
       <c r="I2" s="27">
         <v>3</v>
@@ -60590,14 +60676,14 @@
       <c r="K2" s="27">
         <v>2</v>
       </c>
-      <c r="L2" s="27" t="s">
-        <v>42</v>
+      <c r="L2" s="30" t="s">
+        <v>280</v>
       </c>
       <c r="M2" s="27" t="s">
         <v>40</v>
       </c>
       <c r="N2" s="27" t="s">
-        <v>41</v>
+        <v>281</v>
       </c>
       <c r="O2" s="27">
         <v>0.1</v>
@@ -60606,7 +60692,7 @@
         <v>0.1</v>
       </c>
       <c r="Q2" s="27">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="R2" s="27" t="s">
         <v>26</v>
@@ -60644,19 +60730,19 @@
         <v>0</v>
       </c>
       <c r="D3" s="27">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="E3" s="27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3" s="27">
         <v>45</v>
       </c>
       <c r="G3" s="27">
-        <v>22.5</v>
+        <v>20</v>
       </c>
       <c r="H3" s="27">
-        <v>22.5</v>
+        <v>25</v>
       </c>
       <c r="I3" s="27">
         <v>3</v>
@@ -60667,14 +60753,14 @@
       <c r="K3" s="27">
         <v>2</v>
       </c>
-      <c r="L3" s="27" t="s">
-        <v>42</v>
+      <c r="L3" s="30" t="s">
+        <v>280</v>
       </c>
       <c r="M3" s="27" t="s">
         <v>40</v>
       </c>
       <c r="N3" s="27" t="s">
-        <v>41</v>
+        <v>281</v>
       </c>
       <c r="O3" s="27">
         <v>0.1</v>
@@ -60683,7 +60769,7 @@
         <v>0.1</v>
       </c>
       <c r="Q3" s="27">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="R3" s="27" t="s">
         <v>26</v>
@@ -60721,19 +60807,19 @@
         <v>0</v>
       </c>
       <c r="D4" s="27">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="E4" s="27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4" s="27">
         <v>45</v>
       </c>
       <c r="G4" s="27">
-        <v>22.5</v>
+        <v>20</v>
       </c>
       <c r="H4" s="27">
-        <v>22.5</v>
+        <v>25</v>
       </c>
       <c r="I4" s="27">
         <v>3</v>
@@ -60744,14 +60830,14 @@
       <c r="K4" s="27">
         <v>2</v>
       </c>
-      <c r="L4" s="27" t="s">
-        <v>42</v>
+      <c r="L4" s="30" t="s">
+        <v>280</v>
       </c>
       <c r="M4" s="27" t="s">
         <v>40</v>
       </c>
       <c r="N4" s="27" t="s">
-        <v>41</v>
+        <v>281</v>
       </c>
       <c r="O4" s="27">
         <v>0.1</v>
@@ -60760,7 +60846,7 @@
         <v>0.1</v>
       </c>
       <c r="Q4" s="27">
-        <v>29</v>
+        <v>6</v>
       </c>
       <c r="R4" s="27" t="s">
         <v>26</v>
@@ -60798,19 +60884,19 @@
         <v>0</v>
       </c>
       <c r="D5" s="27">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="E5" s="27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5" s="27">
         <v>45</v>
       </c>
       <c r="G5" s="27">
-        <v>22.5</v>
+        <v>20</v>
       </c>
       <c r="H5" s="27">
-        <v>22.5</v>
+        <v>25</v>
       </c>
       <c r="I5" s="27">
         <v>3</v>
@@ -60821,14 +60907,14 @@
       <c r="K5" s="27">
         <v>2</v>
       </c>
-      <c r="L5" s="27" t="s">
-        <v>42</v>
+      <c r="L5" s="30" t="s">
+        <v>280</v>
       </c>
       <c r="M5" s="27" t="s">
         <v>40</v>
       </c>
       <c r="N5" s="27" t="s">
-        <v>41</v>
+        <v>281</v>
       </c>
       <c r="O5" s="27">
         <v>0.1</v>
@@ -60837,7 +60923,7 @@
         <v>0.1</v>
       </c>
       <c r="Q5" s="27">
-        <v>33</v>
+        <v>7</v>
       </c>
       <c r="R5" s="27" t="s">
         <v>26</v>
@@ -60875,19 +60961,19 @@
         <v>0</v>
       </c>
       <c r="D6" s="27">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="E6" s="27">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6" s="27">
         <v>45</v>
       </c>
       <c r="G6" s="27">
-        <v>22.5</v>
+        <v>20</v>
       </c>
       <c r="H6" s="27">
-        <v>22.5</v>
+        <v>25</v>
       </c>
       <c r="I6" s="27">
         <v>3</v>
@@ -60898,14 +60984,14 @@
       <c r="K6" s="27">
         <v>2</v>
       </c>
-      <c r="L6" s="27" t="s">
-        <v>42</v>
+      <c r="L6" s="30" t="s">
+        <v>280</v>
       </c>
       <c r="M6" s="27" t="s">
         <v>40</v>
       </c>
       <c r="N6" s="27" t="s">
-        <v>41</v>
+        <v>281</v>
       </c>
       <c r="O6" s="27">
         <v>0.1</v>
@@ -60914,7 +61000,7 @@
         <v>0.1</v>
       </c>
       <c r="Q6" s="27">
-        <v>46</v>
+        <v>8</v>
       </c>
       <c r="R6" s="27" t="s">
         <v>26</v>
@@ -60942,22 +61028,11 @@
       </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="L2">
-    <cfRule type="duplicateValues" dxfId="5" priority="41"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L3">
-    <cfRule type="duplicateValues" dxfId="4" priority="30"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L4">
-    <cfRule type="duplicateValues" dxfId="3" priority="20"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L5">
-    <cfRule type="duplicateValues" dxfId="2" priority="16"/>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="L6">
-    <cfRule type="duplicateValues" dxfId="1" priority="3"/>
+  <conditionalFormatting sqref="L2:L6">
+    <cfRule type="duplicateValues" dxfId="12" priority="41"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -61145,7 +61220,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="L2">
-    <cfRule type="duplicateValues" dxfId="0" priority="15"/>
+    <cfRule type="duplicateValues" dxfId="7" priority="15"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/AE Zaid/Bagerhat/2022-23/Protective Work Design/Sannashi to kanalia/Draft_Drawing/Sannashi_to_Khawlia_Input_selected.xlsx
+++ b/AE Zaid/Bagerhat/2022-23/Protective Work Design/Sannashi to kanalia/Draft_Drawing/Sannashi_to_Khawlia_Input_selected.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19980" windowHeight="7668" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19980" windowHeight="7668" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Headers" sheetId="18" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="561" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="202">
   <si>
     <t>SL</t>
   </si>
@@ -248,33 +248,6 @@
     <t>10 of 50</t>
   </si>
   <si>
-    <t>11 of 50</t>
-  </si>
-  <si>
-    <t>12 of 50</t>
-  </si>
-  <si>
-    <t>13 of 50</t>
-  </si>
-  <si>
-    <t>14 of 50</t>
-  </si>
-  <si>
-    <t>15 of 50</t>
-  </si>
-  <si>
-    <t>16 of 50</t>
-  </si>
-  <si>
-    <t>17 of 50</t>
-  </si>
-  <si>
-    <t>18 of 50</t>
-  </si>
-  <si>
-    <t>19 of 50</t>
-  </si>
-  <si>
     <t>Typical Cross Section</t>
   </si>
   <si>
@@ -311,220 +284,7 @@
     <t>09</t>
   </si>
   <si>
-    <t>20 of 50</t>
-  </si>
-  <si>
-    <t>21 of 50</t>
-  </si>
-  <si>
-    <t>22 of 50</t>
-  </si>
-  <si>
-    <t>23 of 50</t>
-  </si>
-  <si>
-    <t>24 of 50</t>
-  </si>
-  <si>
-    <t>25 of 50</t>
-  </si>
-  <si>
-    <t>26 of 50</t>
-  </si>
-  <si>
-    <t>27 of 50</t>
-  </si>
-  <si>
-    <t>28 of 50</t>
-  </si>
-  <si>
-    <t>29 of 50</t>
-  </si>
-  <si>
-    <t>30 of 50</t>
-  </si>
-  <si>
-    <t>31 of 50</t>
-  </si>
-  <si>
-    <t>32 of 50</t>
-  </si>
-  <si>
-    <t>33 of 50</t>
-  </si>
-  <si>
-    <t>34 of 50</t>
-  </si>
-  <si>
-    <t>35 of 50</t>
-  </si>
-  <si>
-    <t>36 of 50</t>
-  </si>
-  <si>
-    <t>37 of 50</t>
-  </si>
-  <si>
-    <t>38 of 50</t>
-  </si>
-  <si>
-    <t>39 of 50</t>
-  </si>
-  <si>
-    <t>40 of 50</t>
-  </si>
-  <si>
-    <t>41 of 50</t>
-  </si>
-  <si>
-    <t>42 of 50</t>
-  </si>
-  <si>
-    <t>43 of 50</t>
-  </si>
-  <si>
-    <t>44 of 50</t>
-  </si>
-  <si>
-    <t>45 of 50</t>
-  </si>
-  <si>
-    <t>46 of 50</t>
-  </si>
-  <si>
-    <t>47 of 50</t>
-  </si>
-  <si>
-    <t>48 of 50</t>
-  </si>
-  <si>
-    <t>49 of 50</t>
-  </si>
-  <si>
-    <t>50 of 50</t>
-  </si>
-  <si>
     <t>DC-8-XXXX-10/50</t>
-  </si>
-  <si>
-    <t>DC-8-XXXX-11/50</t>
-  </si>
-  <si>
-    <t>DC-8-XXXX-12/50</t>
-  </si>
-  <si>
-    <t>DC-8-XXXX-13/50</t>
-  </si>
-  <si>
-    <t>DC-8-XXXX-14/50</t>
-  </si>
-  <si>
-    <t>DC-8-XXXX-15/50</t>
-  </si>
-  <si>
-    <t>DC-8-XXXX-16/50</t>
-  </si>
-  <si>
-    <t>DC-8-XXXX-17/50</t>
-  </si>
-  <si>
-    <t>DC-8-XXXX-18/50</t>
-  </si>
-  <si>
-    <t>DC-8-XXXX-19/50</t>
-  </si>
-  <si>
-    <t>DC-8-XXXX-20/50</t>
-  </si>
-  <si>
-    <t>DC-8-XXXX-21/50</t>
-  </si>
-  <si>
-    <t>DC-8-XXXX-22/50</t>
-  </si>
-  <si>
-    <t>DC-8-XXXX-23/50</t>
-  </si>
-  <si>
-    <t>DC-8-XXXX-24/50</t>
-  </si>
-  <si>
-    <t>DC-8-XXXX-25/50</t>
-  </si>
-  <si>
-    <t>DC-8-XXXX-26/50</t>
-  </si>
-  <si>
-    <t>DC-8-XXXX-27/50</t>
-  </si>
-  <si>
-    <t>DC-8-XXXX-28/50</t>
-  </si>
-  <si>
-    <t>DC-8-XXXX-29/50</t>
-  </si>
-  <si>
-    <t>DC-8-XXXX-30/50</t>
-  </si>
-  <si>
-    <t>DC-8-XXXX-31/50</t>
-  </si>
-  <si>
-    <t>DC-8-XXXX-32/50</t>
-  </si>
-  <si>
-    <t>DC-8-XXXX-33/50</t>
-  </si>
-  <si>
-    <t>DC-8-XXXX-34/50</t>
-  </si>
-  <si>
-    <t>DC-8-XXXX-35/50</t>
-  </si>
-  <si>
-    <t>DC-8-XXXX-36/50</t>
-  </si>
-  <si>
-    <t>DC-8-XXXX-37/50</t>
-  </si>
-  <si>
-    <t>DC-8-XXXX-38/50</t>
-  </si>
-  <si>
-    <t>DC-8-XXXX-39/50</t>
-  </si>
-  <si>
-    <t>DC-8-XXXX-40/50</t>
-  </si>
-  <si>
-    <t>DC-8-XXXX-41/50</t>
-  </si>
-  <si>
-    <t>DC-8-XXXX-42/50</t>
-  </si>
-  <si>
-    <t>DC-8-XXXX-43/50</t>
-  </si>
-  <si>
-    <t>DC-8-XXXX-44/50</t>
-  </si>
-  <si>
-    <t>DC-8-XXXX-45/50</t>
-  </si>
-  <si>
-    <t>DC-8-XXXX-46/50</t>
-  </si>
-  <si>
-    <t>DC-8-XXXX-47/50</t>
-  </si>
-  <si>
-    <t>DC-8-XXXX-48/50</t>
-  </si>
-  <si>
-    <t>DC-8-XXXX-49/50</t>
-  </si>
-  <si>
-    <t>DC-8-XXXX-50/50</t>
   </si>
   <si>
     <t>08-11-2022</t>
@@ -1416,7 +1176,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
+    <sheetView zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
       <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -1456,7 +1216,7 @@
         <v>52</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>279</v>
+        <v>199</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="42" customHeight="1" x14ac:dyDescent="0.3">
@@ -1464,7 +1224,7 @@
         <v>53</v>
       </c>
       <c r="B5" s="26" t="s">
-        <v>277</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
@@ -1496,7 +1256,7 @@
         <v>60</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>278</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
@@ -1504,7 +1264,7 @@
         <v>61</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>84</v>
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -1525,7 +1285,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T85"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
@@ -1565,7 +1325,7 @@
     </row>
     <row r="2" spans="1:20" ht="19.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="12" t="s">
-        <v>252</v>
+        <v>172</v>
       </c>
       <c r="B2" s="12"/>
       <c r="C2"/>
@@ -1592,7 +1352,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>179</v>
+        <v>99</v>
       </c>
       <c r="C3"/>
       <c r="D3"/>
@@ -1618,7 +1378,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="C4"/>
       <c r="D4"/>
@@ -1644,7 +1404,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>181</v>
+        <v>101</v>
       </c>
       <c r="C5"/>
       <c r="D5"/>
@@ -1670,7 +1430,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>182</v>
+        <v>102</v>
       </c>
       <c r="C6"/>
       <c r="D6"/>
@@ -1696,7 +1456,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>183</v>
+        <v>103</v>
       </c>
       <c r="C7"/>
       <c r="D7"/>
@@ -1722,7 +1482,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>184</v>
+        <v>104</v>
       </c>
       <c r="C8"/>
       <c r="D8"/>
@@ -1748,7 +1508,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>185</v>
+        <v>105</v>
       </c>
       <c r="C9"/>
       <c r="D9"/>
@@ -1774,7 +1534,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>186</v>
+        <v>106</v>
       </c>
       <c r="C10"/>
       <c r="D10"/>
@@ -1800,7 +1560,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>187</v>
+        <v>107</v>
       </c>
       <c r="C11"/>
       <c r="D11"/>
@@ -1826,7 +1586,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>188</v>
+        <v>108</v>
       </c>
       <c r="C12"/>
       <c r="D12"/>
@@ -1852,7 +1612,7 @@
         <v>12</v>
       </c>
       <c r="B13" t="s">
-        <v>190</v>
+        <v>110</v>
       </c>
       <c r="C13"/>
       <c r="D13"/>
@@ -1878,7 +1638,7 @@
         <v>13</v>
       </c>
       <c r="B14" t="s">
-        <v>191</v>
+        <v>111</v>
       </c>
       <c r="C14"/>
       <c r="D14"/>
@@ -1904,7 +1664,7 @@
         <v>14</v>
       </c>
       <c r="B15" t="s">
-        <v>192</v>
+        <v>112</v>
       </c>
       <c r="C15"/>
       <c r="D15"/>
@@ -1930,7 +1690,7 @@
         <v>15</v>
       </c>
       <c r="B16" t="s">
-        <v>193</v>
+        <v>113</v>
       </c>
       <c r="C16"/>
       <c r="D16"/>
@@ -1956,7 +1716,7 @@
         <v>16</v>
       </c>
       <c r="B17" t="s">
-        <v>194</v>
+        <v>114</v>
       </c>
       <c r="C17"/>
       <c r="D17"/>
@@ -1979,7 +1739,7 @@
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>195</v>
+        <v>115</v>
       </c>
       <c r="B18"/>
       <c r="C18"/>
@@ -2004,7 +1764,7 @@
     <row r="19" spans="1:20" ht="61.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A19"/>
       <c r="B19" s="29" t="s">
-        <v>250</v>
+        <v>170</v>
       </c>
       <c r="C19"/>
       <c r="D19"/>
@@ -2027,7 +1787,7 @@
     </row>
     <row r="20" spans="1:20" ht="42" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B20" s="29" t="s">
-        <v>251</v>
+        <v>171</v>
       </c>
       <c r="C20"/>
       <c r="D20"/>
@@ -2050,10 +1810,10 @@
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A21" s="13" t="s">
-        <v>204</v>
+        <v>124</v>
       </c>
       <c r="B21" t="s">
-        <v>249</v>
+        <v>169</v>
       </c>
       <c r="C21"/>
       <c r="D21"/>
@@ -2079,7 +1839,7 @@
         <v>1</v>
       </c>
       <c r="B22" s="29" t="s">
-        <v>254</v>
+        <v>174</v>
       </c>
       <c r="C22"/>
       <c r="D22"/>
@@ -2105,7 +1865,7 @@
         <v>2</v>
       </c>
       <c r="B23" t="s">
-        <v>253</v>
+        <v>173</v>
       </c>
       <c r="C23"/>
       <c r="D23"/>
@@ -2131,7 +1891,7 @@
         <v>3</v>
       </c>
       <c r="B24" s="29" t="s">
-        <v>255</v>
+        <v>175</v>
       </c>
       <c r="C24"/>
       <c r="D24"/>
@@ -2154,7 +1914,7 @@
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>256</v>
+        <v>176</v>
       </c>
       <c r="B25"/>
       <c r="C25"/>
@@ -2181,7 +1941,7 @@
         <v>1</v>
       </c>
       <c r="B26" s="29" t="s">
-        <v>257</v>
+        <v>177</v>
       </c>
       <c r="C26"/>
       <c r="D26"/>
@@ -2207,7 +1967,7 @@
         <v>2</v>
       </c>
       <c r="B27" s="29" t="s">
-        <v>258</v>
+        <v>178</v>
       </c>
       <c r="C27"/>
       <c r="D27"/>
@@ -2233,7 +1993,7 @@
         <v>3</v>
       </c>
       <c r="B28" s="29" t="s">
-        <v>259</v>
+        <v>179</v>
       </c>
       <c r="C28"/>
       <c r="D28"/>
@@ -2259,7 +2019,7 @@
         <v>4</v>
       </c>
       <c r="B29" s="29" t="s">
-        <v>218</v>
+        <v>138</v>
       </c>
       <c r="C29"/>
       <c r="D29"/>
@@ -2285,7 +2045,7 @@
         <v>5</v>
       </c>
       <c r="B30" s="29" t="s">
-        <v>260</v>
+        <v>180</v>
       </c>
       <c r="C30"/>
       <c r="D30"/>
@@ -2308,7 +2068,7 @@
     </row>
     <row r="31" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>222</v>
+        <v>142</v>
       </c>
       <c r="B31"/>
       <c r="C31"/>
@@ -2335,7 +2095,7 @@
         <v>1</v>
       </c>
       <c r="B32" s="29" t="s">
-        <v>261</v>
+        <v>181</v>
       </c>
       <c r="C32"/>
       <c r="D32"/>
@@ -2361,7 +2121,7 @@
         <v>2</v>
       </c>
       <c r="B33" s="29" t="s">
-        <v>262</v>
+        <v>182</v>
       </c>
       <c r="C33"/>
       <c r="D33"/>
@@ -2387,7 +2147,7 @@
         <v>3</v>
       </c>
       <c r="B34" s="29" t="s">
-        <v>263</v>
+        <v>183</v>
       </c>
       <c r="C34"/>
       <c r="D34"/>
@@ -2413,7 +2173,7 @@
         <v>4</v>
       </c>
       <c r="B35" s="29" t="s">
-        <v>264</v>
+        <v>184</v>
       </c>
       <c r="C35"/>
       <c r="D35"/>
@@ -2436,10 +2196,10 @@
     </row>
     <row r="36" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>227</v>
+        <v>147</v>
       </c>
       <c r="B36" s="29" t="s">
-        <v>265</v>
+        <v>185</v>
       </c>
       <c r="C36"/>
       <c r="D36"/>
@@ -2462,10 +2222,10 @@
     </row>
     <row r="37" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>229</v>
+        <v>149</v>
       </c>
       <c r="B37" s="29" t="s">
-        <v>266</v>
+        <v>186</v>
       </c>
       <c r="C37"/>
       <c r="D37"/>
@@ -2488,10 +2248,10 @@
     </row>
     <row r="38" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>231</v>
+        <v>151</v>
       </c>
       <c r="B38" s="29" t="s">
-        <v>232</v>
+        <v>152</v>
       </c>
       <c r="C38"/>
       <c r="D38"/>
@@ -2514,10 +2274,10 @@
     </row>
     <row r="39" spans="1:20" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>233</v>
+        <v>153</v>
       </c>
       <c r="B39" s="29" t="s">
-        <v>267</v>
+        <v>187</v>
       </c>
       <c r="C39"/>
       <c r="D39"/>
@@ -2543,7 +2303,7 @@
         <v>6</v>
       </c>
       <c r="B40" s="29" t="s">
-        <v>268</v>
+        <v>188</v>
       </c>
       <c r="C40"/>
       <c r="D40"/>
@@ -2569,7 +2329,7 @@
         <v>7</v>
       </c>
       <c r="B41" s="29" t="s">
-        <v>236</v>
+        <v>156</v>
       </c>
       <c r="C41"/>
       <c r="D41"/>
@@ -2595,7 +2355,7 @@
         <v>8</v>
       </c>
       <c r="B42" s="29" t="s">
-        <v>276</v>
+        <v>196</v>
       </c>
       <c r="C42"/>
       <c r="D42"/>
@@ -2618,10 +2378,10 @@
     </row>
     <row r="43" spans="1:20" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>227</v>
+        <v>147</v>
       </c>
       <c r="B43" s="29" t="s">
-        <v>269</v>
+        <v>189</v>
       </c>
       <c r="C43"/>
       <c r="D43"/>
@@ -2644,10 +2404,10 @@
     </row>
     <row r="44" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>229</v>
+        <v>149</v>
       </c>
       <c r="B44" s="29" t="s">
-        <v>240</v>
+        <v>160</v>
       </c>
       <c r="C44"/>
       <c r="D44"/>
@@ -2670,10 +2430,10 @@
     </row>
     <row r="45" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>231</v>
+        <v>151</v>
       </c>
       <c r="B45" s="29" t="s">
-        <v>270</v>
+        <v>190</v>
       </c>
       <c r="C45"/>
       <c r="D45"/>
@@ -2696,10 +2456,10 @@
     </row>
     <row r="46" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>233</v>
+        <v>153</v>
       </c>
       <c r="B46" s="29" t="s">
-        <v>271</v>
+        <v>191</v>
       </c>
       <c r="C46"/>
       <c r="D46"/>
@@ -2722,7 +2482,7 @@
     </row>
     <row r="47" spans="1:20" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>244</v>
+        <v>164</v>
       </c>
       <c r="B47"/>
       <c r="C47"/>
@@ -2749,7 +2509,7 @@
         <v>1</v>
       </c>
       <c r="B48" s="29" t="s">
-        <v>272</v>
+        <v>192</v>
       </c>
       <c r="C48"/>
       <c r="D48"/>
@@ -2775,7 +2535,7 @@
         <v>2</v>
       </c>
       <c r="B49" s="29" t="s">
-        <v>273</v>
+        <v>193</v>
       </c>
       <c r="C49"/>
       <c r="D49"/>
@@ -2823,7 +2583,7 @@
         <v>3</v>
       </c>
       <c r="B51" s="29" t="s">
-        <v>274</v>
+        <v>194</v>
       </c>
       <c r="C51"/>
       <c r="D51"/>
@@ -2849,7 +2609,7 @@
         <v>4</v>
       </c>
       <c r="B52" s="29" t="s">
-        <v>275</v>
+        <v>195</v>
       </c>
       <c r="C52"/>
       <c r="D52"/>
@@ -58276,10 +58036,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M51"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="145" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="145" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -58329,10 +58089,10 @@
         <v>9</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>168</v>
+        <v>88</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>167</v>
+        <v>87</v>
       </c>
       <c r="E2" s="6">
         <v>100000</v>
@@ -58347,20 +58107,21 @@
         <v>64</v>
       </c>
       <c r="I2" s="24" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="J2" s="7">
-        <v>50</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>64</v>
+        <v>10</v>
+      </c>
+      <c r="K2" s="6" t="str">
+        <f>CONCATENATE(I2," 0f ",J2)</f>
+        <v>01 0f 10</v>
       </c>
       <c r="L2" s="20" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="M2" s="2" t="str">
         <f>CONCATENATE(L2,I2,"/",J2)</f>
-        <v>DC-8-XXXX-01/50</v>
+        <v>DC-8-XXXX-01/10</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.3">
@@ -58371,10 +58132,10 @@
         <v>10</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>169</v>
+        <v>89</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>167</v>
+        <v>87</v>
       </c>
       <c r="E3" s="6">
         <v>115000</v>
@@ -58389,20 +58150,21 @@
         <v>65</v>
       </c>
       <c r="I3" s="24" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="J3" s="7">
-        <v>50</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>65</v>
+        <v>10</v>
+      </c>
+      <c r="K3" s="6" t="str">
+        <f t="shared" ref="K3:K11" si="0">CONCATENATE(I3," 0f ",J3)</f>
+        <v>02 0f 10</v>
       </c>
       <c r="L3" s="20" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="M3" s="2" t="str">
-        <f t="shared" ref="M3:M51" si="0">CONCATENATE(L3,I3,"/",J3)</f>
-        <v>DC-8-XXXX-02/50</v>
+        <f t="shared" ref="M3:M11" si="1">CONCATENATE(L3,I3,"/",J3)</f>
+        <v>DC-8-XXXX-02/10</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.3">
@@ -58413,10 +58175,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>170</v>
+        <v>90</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>167</v>
+        <v>87</v>
       </c>
       <c r="E4" s="6">
         <v>130000</v>
@@ -58431,20 +58193,21 @@
         <v>66</v>
       </c>
       <c r="I4" s="24" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="J4" s="7">
-        <v>50</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>66</v>
+        <v>10</v>
+      </c>
+      <c r="K4" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>03 0f 10</v>
       </c>
       <c r="L4" s="20" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="M4" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>DC-8-XXXX-03/50</v>
+        <f t="shared" si="1"/>
+        <v>DC-8-XXXX-03/10</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.3">
@@ -58452,13 +58215,13 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>177</v>
+        <v>97</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>171</v>
+        <v>91</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>167</v>
+        <v>87</v>
       </c>
       <c r="E5" s="6">
         <v>145000</v>
@@ -58473,20 +58236,21 @@
         <v>67</v>
       </c>
       <c r="I5" s="24" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="J5" s="7">
-        <v>50</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>67</v>
+        <v>10</v>
+      </c>
+      <c r="K5" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>04 0f 10</v>
       </c>
       <c r="L5" s="20" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="M5" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>DC-8-XXXX-04/50</v>
+        <f t="shared" si="1"/>
+        <v>DC-8-XXXX-04/10</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.3">
@@ -58494,13 +58258,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>177</v>
+        <v>97</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>172</v>
+        <v>92</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>167</v>
+        <v>87</v>
       </c>
       <c r="E6" s="6">
         <v>160000</v>
@@ -58515,20 +58279,21 @@
         <v>68</v>
       </c>
       <c r="I6" s="24" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="J6" s="7">
-        <v>50</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>68</v>
+        <v>10</v>
+      </c>
+      <c r="K6" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>05 0f 10</v>
       </c>
       <c r="L6" s="20" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="M6" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>DC-8-XXXX-05/50</v>
+        <f t="shared" si="1"/>
+        <v>DC-8-XXXX-05/10</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.3">
@@ -58536,13 +58301,13 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>177</v>
+        <v>97</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>173</v>
+        <v>93</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>167</v>
+        <v>87</v>
       </c>
       <c r="E7" s="6">
         <v>175000</v>
@@ -58557,20 +58322,21 @@
         <v>69</v>
       </c>
       <c r="I7" s="24" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="J7" s="7">
-        <v>50</v>
-      </c>
-      <c r="K7" s="6" t="s">
-        <v>69</v>
+        <v>10</v>
+      </c>
+      <c r="K7" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>06 0f 10</v>
       </c>
       <c r="L7" s="20" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="M7" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>DC-8-XXXX-06/50</v>
+        <f t="shared" si="1"/>
+        <v>DC-8-XXXX-06/10</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.3">
@@ -58578,13 +58344,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>177</v>
+        <v>97</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>174</v>
+        <v>94</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>167</v>
+        <v>87</v>
       </c>
       <c r="E8" s="6">
         <v>190000</v>
@@ -58599,20 +58365,21 @@
         <v>70</v>
       </c>
       <c r="I8" s="24" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="J8" s="7">
-        <v>50</v>
-      </c>
-      <c r="K8" s="6" t="s">
-        <v>70</v>
+        <v>10</v>
+      </c>
+      <c r="K8" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>07 0f 10</v>
       </c>
       <c r="L8" s="20" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="M8" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>DC-8-XXXX-07/50</v>
+        <f t="shared" si="1"/>
+        <v>DC-8-XXXX-07/10</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.3">
@@ -58620,13 +58387,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>177</v>
+        <v>97</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>175</v>
+        <v>95</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>167</v>
+        <v>87</v>
       </c>
       <c r="E9" s="6">
         <v>205000</v>
@@ -58641,20 +58408,21 @@
         <v>71</v>
       </c>
       <c r="I9" s="24" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="J9" s="7">
-        <v>50</v>
-      </c>
-      <c r="K9" s="6" t="s">
-        <v>71</v>
+        <v>10</v>
+      </c>
+      <c r="K9" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>08 0f 10</v>
       </c>
       <c r="L9" s="20" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="M9" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>DC-8-XXXX-08/50</v>
+        <f t="shared" si="1"/>
+        <v>DC-8-XXXX-08/10</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.3">
@@ -58662,13 +58430,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>177</v>
+        <v>97</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>176</v>
+        <v>96</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>167</v>
+        <v>87</v>
       </c>
       <c r="E10" s="6">
         <v>220000</v>
@@ -58683,20 +58451,21 @@
         <v>72</v>
       </c>
       <c r="I10" s="24" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="J10" s="7">
-        <v>50</v>
-      </c>
-      <c r="K10" s="6" t="s">
-        <v>72</v>
+        <v>10</v>
+      </c>
+      <c r="K10" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>09 0f 10</v>
       </c>
       <c r="L10" s="20" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="M10" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>DC-8-XXXX-09/50</v>
+        <f t="shared" si="1"/>
+        <v>DC-8-XXXX-09/10</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.3">
@@ -58704,13 +58473,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>177</v>
+        <v>97</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>126</v>
+        <v>86</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>167</v>
+        <v>87</v>
       </c>
       <c r="E11" s="6">
         <v>235000</v>
@@ -58728,1697 +58497,18 @@
         <v>10</v>
       </c>
       <c r="J11" s="7">
-        <v>50</v>
-      </c>
-      <c r="K11" s="6" t="s">
-        <v>73</v>
+        <v>10</v>
+      </c>
+      <c r="K11" s="6" t="str">
+        <f t="shared" si="0"/>
+        <v>10 0f 10</v>
       </c>
       <c r="L11" s="20" t="s">
-        <v>85</v>
+        <v>76</v>
       </c>
       <c r="M11" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>DC-8-XXXX-10/50</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A12" s="6">
-        <v>11</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>127</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="E12" s="6">
-        <v>250000</v>
-      </c>
-      <c r="F12" s="7">
-        <v>0</v>
-      </c>
-      <c r="G12" s="10">
-        <v>10000</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="I12" s="24">
-        <v>11</v>
-      </c>
-      <c r="J12" s="7">
-        <v>50</v>
-      </c>
-      <c r="K12" s="6" t="s">
-        <v>74</v>
-      </c>
-      <c r="L12" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="M12" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>DC-8-XXXX-11/50</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A13" s="6">
-        <v>12</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>128</v>
-      </c>
-      <c r="D13" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="E13" s="6">
-        <v>265000</v>
-      </c>
-      <c r="F13" s="7">
-        <v>0</v>
-      </c>
-      <c r="G13" s="10">
-        <v>10000</v>
-      </c>
-      <c r="H13" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="I13" s="24">
-        <v>12</v>
-      </c>
-      <c r="J13" s="7">
-        <v>50</v>
-      </c>
-      <c r="K13" s="6" t="s">
-        <v>75</v>
-      </c>
-      <c r="L13" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="M13" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>DC-8-XXXX-12/50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A14" s="6">
-        <v>13</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="D14" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="E14" s="6">
-        <v>280000</v>
-      </c>
-      <c r="F14" s="7">
-        <v>0</v>
-      </c>
-      <c r="G14" s="10">
-        <v>10000</v>
-      </c>
-      <c r="H14" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="I14" s="24">
-        <v>13</v>
-      </c>
-      <c r="J14" s="7">
-        <v>50</v>
-      </c>
-      <c r="K14" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="L14" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="M14" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>DC-8-XXXX-13/50</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A15" s="6">
-        <v>14</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="C15" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="D15" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="E15" s="6">
-        <v>295000</v>
-      </c>
-      <c r="F15" s="7">
-        <v>0</v>
-      </c>
-      <c r="G15" s="10">
-        <v>10000</v>
-      </c>
-      <c r="H15" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="I15" s="24">
-        <v>14</v>
-      </c>
-      <c r="J15" s="7">
-        <v>50</v>
-      </c>
-      <c r="K15" s="6" t="s">
-        <v>77</v>
-      </c>
-      <c r="L15" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="M15" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>DC-8-XXXX-14/50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A16" s="6">
-        <v>15</v>
-      </c>
-      <c r="B16" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="C16" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="D16" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="E16" s="6">
-        <v>310000</v>
-      </c>
-      <c r="F16" s="7">
-        <v>0</v>
-      </c>
-      <c r="G16" s="10">
-        <v>10000</v>
-      </c>
-      <c r="H16" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="I16" s="24">
-        <v>15</v>
-      </c>
-      <c r="J16" s="7">
-        <v>50</v>
-      </c>
-      <c r="K16" s="6" t="s">
-        <v>78</v>
-      </c>
-      <c r="L16" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="M16" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>DC-8-XXXX-15/50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A17" s="6">
-        <v>16</v>
-      </c>
-      <c r="B17" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="C17" s="6" t="s">
-        <v>132</v>
-      </c>
-      <c r="D17" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="E17" s="6">
-        <v>325000</v>
-      </c>
-      <c r="F17" s="7">
-        <v>0</v>
-      </c>
-      <c r="G17" s="10">
-        <v>10000</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="I17" s="24">
-        <v>16</v>
-      </c>
-      <c r="J17" s="7">
-        <v>50</v>
-      </c>
-      <c r="K17" s="6" t="s">
-        <v>79</v>
-      </c>
-      <c r="L17" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="M17" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>DC-8-XXXX-16/50</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A18" s="6">
-        <v>17</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="C18" s="6" t="s">
-        <v>133</v>
-      </c>
-      <c r="D18" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="E18" s="6">
-        <v>340000</v>
-      </c>
-      <c r="F18" s="7">
-        <v>0</v>
-      </c>
-      <c r="G18" s="10">
-        <v>10000</v>
-      </c>
-      <c r="H18" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="I18" s="24">
-        <v>17</v>
-      </c>
-      <c r="J18" s="7">
-        <v>50</v>
-      </c>
-      <c r="K18" s="6" t="s">
-        <v>80</v>
-      </c>
-      <c r="L18" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="M18" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>DC-8-XXXX-17/50</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A19" s="6">
-        <v>18</v>
-      </c>
-      <c r="B19" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="C19" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="E19" s="6">
-        <v>355000</v>
-      </c>
-      <c r="F19" s="7">
-        <v>0</v>
-      </c>
-      <c r="G19" s="10">
-        <v>10000</v>
-      </c>
-      <c r="H19" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="I19" s="24">
-        <v>18</v>
-      </c>
-      <c r="J19" s="7">
-        <v>50</v>
-      </c>
-      <c r="K19" s="6" t="s">
-        <v>81</v>
-      </c>
-      <c r="L19" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="M19" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>DC-8-XXXX-18/50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A20" s="6">
-        <v>19</v>
-      </c>
-      <c r="B20" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="C20" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="D20" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="E20" s="6">
-        <v>370000</v>
-      </c>
-      <c r="F20" s="7">
-        <v>0</v>
-      </c>
-      <c r="G20" s="10">
-        <v>10000</v>
-      </c>
-      <c r="H20" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="I20" s="24">
-        <v>19</v>
-      </c>
-      <c r="J20" s="7">
-        <v>50</v>
-      </c>
-      <c r="K20" s="6" t="s">
-        <v>82</v>
-      </c>
-      <c r="L20" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="M20" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>DC-8-XXXX-19/50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A21" s="6">
-        <v>20</v>
-      </c>
-      <c r="B21" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="C21" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="E21" s="6">
-        <v>385000</v>
-      </c>
-      <c r="F21" s="6">
-        <v>0</v>
-      </c>
-      <c r="G21" s="6">
-        <v>10000</v>
-      </c>
-      <c r="H21" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="I21" s="9">
-        <v>20</v>
-      </c>
-      <c r="J21" s="6">
-        <v>50</v>
-      </c>
-      <c r="K21" s="6" t="s">
-        <v>95</v>
-      </c>
-      <c r="L21" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="M21" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>DC-8-XXXX-20/50</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A22" s="6">
-        <v>21</v>
-      </c>
-      <c r="B22" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>137</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="E22" s="6">
-        <v>400000</v>
-      </c>
-      <c r="F22" s="6">
-        <v>0</v>
-      </c>
-      <c r="G22" s="6">
-        <v>10000</v>
-      </c>
-      <c r="H22" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="I22" s="9">
-        <v>21</v>
-      </c>
-      <c r="J22" s="6">
-        <v>50</v>
-      </c>
-      <c r="K22" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="L22" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="M22" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>DC-8-XXXX-21/50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A23" s="6">
-        <v>22</v>
-      </c>
-      <c r="B23" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="C23" s="6" t="s">
-        <v>138</v>
-      </c>
-      <c r="D23" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="E23" s="6">
-        <v>415000</v>
-      </c>
-      <c r="F23" s="6">
-        <v>0</v>
-      </c>
-      <c r="G23" s="6">
-        <v>10000</v>
-      </c>
-      <c r="H23" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="I23" s="9">
-        <v>22</v>
-      </c>
-      <c r="J23" s="6">
-        <v>50</v>
-      </c>
-      <c r="K23" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="L23" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="M23" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>DC-8-XXXX-22/50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A24" s="6">
-        <v>23</v>
-      </c>
-      <c r="B24" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>139</v>
-      </c>
-      <c r="D24" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="E24" s="6">
-        <v>430000</v>
-      </c>
-      <c r="F24" s="6">
-        <v>0</v>
-      </c>
-      <c r="G24" s="6">
-        <v>10000</v>
-      </c>
-      <c r="H24" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="I24" s="9">
-        <v>23</v>
-      </c>
-      <c r="J24" s="6">
-        <v>50</v>
-      </c>
-      <c r="K24" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="L24" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="M24" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>DC-8-XXXX-23/50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A25" s="6">
-        <v>24</v>
-      </c>
-      <c r="B25" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>140</v>
-      </c>
-      <c r="D25" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="E25" s="6">
-        <v>445000</v>
-      </c>
-      <c r="F25" s="6">
-        <v>0</v>
-      </c>
-      <c r="G25" s="6">
-        <v>10000</v>
-      </c>
-      <c r="H25" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="I25" s="9">
-        <v>24</v>
-      </c>
-      <c r="J25" s="6">
-        <v>50</v>
-      </c>
-      <c r="K25" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="L25" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="M25" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>DC-8-XXXX-24/50</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A26" s="6">
-        <v>25</v>
-      </c>
-      <c r="B26" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="C26" s="6" t="s">
-        <v>141</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="E26" s="6">
-        <v>460000</v>
-      </c>
-      <c r="F26" s="6">
-        <v>0</v>
-      </c>
-      <c r="G26" s="6">
-        <v>10000</v>
-      </c>
-      <c r="H26" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="I26" s="9">
-        <v>25</v>
-      </c>
-      <c r="J26" s="6">
-        <v>50</v>
-      </c>
-      <c r="K26" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="L26" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="M26" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>DC-8-XXXX-25/50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A27" s="6">
-        <v>26</v>
-      </c>
-      <c r="B27" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="C27" s="6" t="s">
-        <v>142</v>
-      </c>
-      <c r="D27" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="E27" s="6">
-        <v>475000</v>
-      </c>
-      <c r="F27" s="6">
-        <v>0</v>
-      </c>
-      <c r="G27" s="6">
-        <v>10000</v>
-      </c>
-      <c r="H27" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="I27" s="9">
-        <v>26</v>
-      </c>
-      <c r="J27" s="6">
-        <v>50</v>
-      </c>
-      <c r="K27" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="L27" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="M27" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>DC-8-XXXX-26/50</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A28" s="6">
-        <v>27</v>
-      </c>
-      <c r="B28" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="C28" s="6" t="s">
-        <v>143</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="E28" s="6">
-        <v>490000</v>
-      </c>
-      <c r="F28" s="6">
-        <v>0</v>
-      </c>
-      <c r="G28" s="6">
-        <v>10000</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="I28" s="9">
-        <v>27</v>
-      </c>
-      <c r="J28" s="6">
-        <v>50</v>
-      </c>
-      <c r="K28" s="6" t="s">
-        <v>102</v>
-      </c>
-      <c r="L28" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="M28" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>DC-8-XXXX-27/50</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A29" s="6">
-        <v>28</v>
-      </c>
-      <c r="B29" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="C29" s="6" t="s">
-        <v>144</v>
-      </c>
-      <c r="D29" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="E29" s="6">
-        <v>505000</v>
-      </c>
-      <c r="F29" s="6">
-        <v>0</v>
-      </c>
-      <c r="G29" s="6">
-        <v>10000</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="I29" s="9">
-        <v>28</v>
-      </c>
-      <c r="J29" s="6">
-        <v>50</v>
-      </c>
-      <c r="K29" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="L29" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="M29" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>DC-8-XXXX-28/50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A30" s="6">
-        <v>29</v>
-      </c>
-      <c r="B30" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="C30" s="6" t="s">
-        <v>145</v>
-      </c>
-      <c r="D30" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="E30" s="6">
-        <v>520000</v>
-      </c>
-      <c r="F30" s="6">
-        <v>0</v>
-      </c>
-      <c r="G30" s="6">
-        <v>10000</v>
-      </c>
-      <c r="H30" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="I30" s="9">
-        <v>29</v>
-      </c>
-      <c r="J30" s="6">
-        <v>50</v>
-      </c>
-      <c r="K30" s="6" t="s">
-        <v>104</v>
-      </c>
-      <c r="L30" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="M30" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>DC-8-XXXX-29/50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A31" s="6">
-        <v>30</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="C31" s="6" t="s">
-        <v>146</v>
-      </c>
-      <c r="D31" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="E31" s="6">
-        <v>535000</v>
-      </c>
-      <c r="F31" s="6">
-        <v>0</v>
-      </c>
-      <c r="G31" s="6">
-        <v>10000</v>
-      </c>
-      <c r="H31" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="I31" s="9">
-        <v>30</v>
-      </c>
-      <c r="J31" s="6">
-        <v>50</v>
-      </c>
-      <c r="K31" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="L31" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="M31" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>DC-8-XXXX-30/50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A32" s="6">
-        <v>31</v>
-      </c>
-      <c r="B32" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="C32" s="6" t="s">
-        <v>147</v>
-      </c>
-      <c r="D32" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="E32" s="6">
-        <v>550000</v>
-      </c>
-      <c r="F32" s="6">
-        <v>0</v>
-      </c>
-      <c r="G32" s="6">
-        <v>10000</v>
-      </c>
-      <c r="H32" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="I32" s="9">
-        <v>31</v>
-      </c>
-      <c r="J32" s="6">
-        <v>50</v>
-      </c>
-      <c r="K32" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="L32" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="M32" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>DC-8-XXXX-31/50</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A33" s="6">
-        <v>32</v>
-      </c>
-      <c r="B33" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="C33" s="6" t="s">
-        <v>148</v>
-      </c>
-      <c r="D33" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="E33" s="6">
-        <v>565000</v>
-      </c>
-      <c r="F33" s="6">
-        <v>0</v>
-      </c>
-      <c r="G33" s="6">
-        <v>10000</v>
-      </c>
-      <c r="H33" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="I33" s="9">
-        <v>32</v>
-      </c>
-      <c r="J33" s="6">
-        <v>50</v>
-      </c>
-      <c r="K33" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="L33" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="M33" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>DC-8-XXXX-32/50</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A34" s="6">
-        <v>33</v>
-      </c>
-      <c r="B34" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="C34" s="6" t="s">
-        <v>149</v>
-      </c>
-      <c r="D34" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="E34" s="6">
-        <v>580000</v>
-      </c>
-      <c r="F34" s="6">
-        <v>0</v>
-      </c>
-      <c r="G34" s="6">
-        <v>10000</v>
-      </c>
-      <c r="H34" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="I34" s="9">
-        <v>33</v>
-      </c>
-      <c r="J34" s="6">
-        <v>50</v>
-      </c>
-      <c r="K34" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="L34" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="M34" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>DC-8-XXXX-33/50</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A35" s="6">
-        <v>34</v>
-      </c>
-      <c r="B35" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="C35" s="6" t="s">
-        <v>150</v>
-      </c>
-      <c r="D35" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="E35" s="6">
-        <v>595000</v>
-      </c>
-      <c r="F35" s="6">
-        <v>0</v>
-      </c>
-      <c r="G35" s="6">
-        <v>10000</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="I35" s="9">
-        <v>34</v>
-      </c>
-      <c r="J35" s="6">
-        <v>50</v>
-      </c>
-      <c r="K35" s="6" t="s">
-        <v>109</v>
-      </c>
-      <c r="L35" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="M35" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>DC-8-XXXX-34/50</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A36" s="6">
-        <v>35</v>
-      </c>
-      <c r="B36" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="C36" s="6" t="s">
-        <v>151</v>
-      </c>
-      <c r="D36" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="E36" s="6">
-        <v>610000</v>
-      </c>
-      <c r="F36" s="6">
-        <v>0</v>
-      </c>
-      <c r="G36" s="6">
-        <v>10000</v>
-      </c>
-      <c r="H36" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="I36" s="9">
-        <v>35</v>
-      </c>
-      <c r="J36" s="6">
-        <v>50</v>
-      </c>
-      <c r="K36" s="6" t="s">
-        <v>110</v>
-      </c>
-      <c r="L36" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="M36" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>DC-8-XXXX-35/50</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A37" s="6">
-        <v>36</v>
-      </c>
-      <c r="B37" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="C37" s="6" t="s">
-        <v>152</v>
-      </c>
-      <c r="D37" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="E37" s="6">
-        <v>625000</v>
-      </c>
-      <c r="F37" s="6">
-        <v>0</v>
-      </c>
-      <c r="G37" s="6">
-        <v>10000</v>
-      </c>
-      <c r="H37" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="I37" s="9">
-        <v>36</v>
-      </c>
-      <c r="J37" s="6">
-        <v>50</v>
-      </c>
-      <c r="K37" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="L37" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="M37" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>DC-8-XXXX-36/50</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A38" s="6">
-        <v>37</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="C38" s="6" t="s">
-        <v>153</v>
-      </c>
-      <c r="D38" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="E38" s="6">
-        <v>640000</v>
-      </c>
-      <c r="F38" s="6">
-        <v>0</v>
-      </c>
-      <c r="G38" s="6">
-        <v>10000</v>
-      </c>
-      <c r="H38" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="I38" s="9">
-        <v>37</v>
-      </c>
-      <c r="J38" s="6">
-        <v>50</v>
-      </c>
-      <c r="K38" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="L38" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="M38" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>DC-8-XXXX-37/50</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A39" s="6">
-        <v>38</v>
-      </c>
-      <c r="B39" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="C39" s="6" t="s">
-        <v>154</v>
-      </c>
-      <c r="D39" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="E39" s="6">
-        <v>655000</v>
-      </c>
-      <c r="F39" s="6">
-        <v>0</v>
-      </c>
-      <c r="G39" s="6">
-        <v>10000</v>
-      </c>
-      <c r="H39" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="I39" s="9">
-        <v>38</v>
-      </c>
-      <c r="J39" s="6">
-        <v>50</v>
-      </c>
-      <c r="K39" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="L39" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="M39" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>DC-8-XXXX-38/50</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A40" s="6">
-        <v>39</v>
-      </c>
-      <c r="B40" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="C40" s="6" t="s">
-        <v>155</v>
-      </c>
-      <c r="D40" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="E40" s="6">
-        <v>670000</v>
-      </c>
-      <c r="F40" s="6">
-        <v>0</v>
-      </c>
-      <c r="G40" s="6">
-        <v>10000</v>
-      </c>
-      <c r="H40" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="I40" s="9">
-        <v>39</v>
-      </c>
-      <c r="J40" s="6">
-        <v>50</v>
-      </c>
-      <c r="K40" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="L40" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="M40" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>DC-8-XXXX-39/50</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A41" s="6">
-        <v>40</v>
-      </c>
-      <c r="B41" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="C41" s="6" t="s">
-        <v>156</v>
-      </c>
-      <c r="D41" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="E41" s="6">
-        <v>685000</v>
-      </c>
-      <c r="F41" s="6">
-        <v>0</v>
-      </c>
-      <c r="G41" s="6">
-        <v>10000</v>
-      </c>
-      <c r="H41" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="I41" s="9">
-        <v>40</v>
-      </c>
-      <c r="J41" s="6">
-        <v>50</v>
-      </c>
-      <c r="K41" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="L41" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="M41" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>DC-8-XXXX-40/50</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A42" s="6">
-        <v>41</v>
-      </c>
-      <c r="B42" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="C42" s="6" t="s">
-        <v>157</v>
-      </c>
-      <c r="D42" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="E42" s="6">
-        <v>700000</v>
-      </c>
-      <c r="F42" s="6">
-        <v>0</v>
-      </c>
-      <c r="G42" s="6">
-        <v>10000</v>
-      </c>
-      <c r="H42" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="I42" s="9">
-        <v>41</v>
-      </c>
-      <c r="J42" s="6">
-        <v>50</v>
-      </c>
-      <c r="K42" s="6" t="s">
-        <v>116</v>
-      </c>
-      <c r="L42" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="M42" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>DC-8-XXXX-41/50</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A43" s="6">
-        <v>42</v>
-      </c>
-      <c r="B43" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="C43" s="6" t="s">
-        <v>158</v>
-      </c>
-      <c r="D43" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="E43" s="6">
-        <v>715000</v>
-      </c>
-      <c r="F43" s="6">
-        <v>0</v>
-      </c>
-      <c r="G43" s="6">
-        <v>10000</v>
-      </c>
-      <c r="H43" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="I43" s="9">
-        <v>42</v>
-      </c>
-      <c r="J43" s="6">
-        <v>50</v>
-      </c>
-      <c r="K43" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="L43" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="M43" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>DC-8-XXXX-42/50</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A44" s="6">
-        <v>43</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="C44" s="6" t="s">
-        <v>159</v>
-      </c>
-      <c r="D44" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="E44" s="6">
-        <v>730000</v>
-      </c>
-      <c r="F44" s="6">
-        <v>0</v>
-      </c>
-      <c r="G44" s="6">
-        <v>10000</v>
-      </c>
-      <c r="H44" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="I44" s="9">
-        <v>43</v>
-      </c>
-      <c r="J44" s="6">
-        <v>50</v>
-      </c>
-      <c r="K44" s="6" t="s">
-        <v>118</v>
-      </c>
-      <c r="L44" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="M44" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>DC-8-XXXX-43/50</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A45" s="6">
-        <v>44</v>
-      </c>
-      <c r="B45" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>160</v>
-      </c>
-      <c r="D45" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="E45" s="6">
-        <v>745000</v>
-      </c>
-      <c r="F45" s="6">
-        <v>0</v>
-      </c>
-      <c r="G45" s="6">
-        <v>10000</v>
-      </c>
-      <c r="H45" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="I45" s="9">
-        <v>44</v>
-      </c>
-      <c r="J45" s="6">
-        <v>50</v>
-      </c>
-      <c r="K45" s="6" t="s">
-        <v>119</v>
-      </c>
-      <c r="L45" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="M45" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>DC-8-XXXX-44/50</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A46" s="6">
-        <v>45</v>
-      </c>
-      <c r="B46" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="C46" s="6" t="s">
-        <v>161</v>
-      </c>
-      <c r="D46" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="E46" s="6">
-        <v>760000</v>
-      </c>
-      <c r="F46" s="6">
-        <v>0</v>
-      </c>
-      <c r="G46" s="6">
-        <v>10000</v>
-      </c>
-      <c r="H46" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="I46" s="9">
-        <v>45</v>
-      </c>
-      <c r="J46" s="6">
-        <v>50</v>
-      </c>
-      <c r="K46" s="6" t="s">
-        <v>120</v>
-      </c>
-      <c r="L46" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="M46" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>DC-8-XXXX-45/50</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A47" s="6">
-        <v>46</v>
-      </c>
-      <c r="B47" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="C47" s="6" t="s">
-        <v>162</v>
-      </c>
-      <c r="D47" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="E47" s="6">
-        <v>775000</v>
-      </c>
-      <c r="F47" s="6">
-        <v>0</v>
-      </c>
-      <c r="G47" s="6">
-        <v>10000</v>
-      </c>
-      <c r="H47" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="I47" s="9">
-        <v>46</v>
-      </c>
-      <c r="J47" s="6">
-        <v>50</v>
-      </c>
-      <c r="K47" s="6" t="s">
-        <v>121</v>
-      </c>
-      <c r="L47" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="M47" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>DC-8-XXXX-46/50</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A48" s="6">
-        <v>47</v>
-      </c>
-      <c r="B48" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="C48" s="6" t="s">
-        <v>163</v>
-      </c>
-      <c r="D48" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="E48" s="6">
-        <v>790000</v>
-      </c>
-      <c r="F48" s="6">
-        <v>0</v>
-      </c>
-      <c r="G48" s="6">
-        <v>10000</v>
-      </c>
-      <c r="H48" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="I48" s="9">
-        <v>47</v>
-      </c>
-      <c r="J48" s="6">
-        <v>50</v>
-      </c>
-      <c r="K48" s="6" t="s">
-        <v>122</v>
-      </c>
-      <c r="L48" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="M48" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>DC-8-XXXX-47/50</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A49" s="6">
-        <v>48</v>
-      </c>
-      <c r="B49" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="C49" s="6" t="s">
-        <v>164</v>
-      </c>
-      <c r="D49" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="E49" s="6">
-        <v>805000</v>
-      </c>
-      <c r="F49" s="6">
-        <v>0</v>
-      </c>
-      <c r="G49" s="6">
-        <v>10000</v>
-      </c>
-      <c r="H49" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="I49" s="9">
-        <v>48</v>
-      </c>
-      <c r="J49" s="6">
-        <v>50</v>
-      </c>
-      <c r="K49" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="L49" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="M49" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>DC-8-XXXX-48/50</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A50" s="6">
-        <v>49</v>
-      </c>
-      <c r="B50" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="C50" s="6" t="s">
-        <v>165</v>
-      </c>
-      <c r="D50" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="E50" s="6">
-        <v>820000</v>
-      </c>
-      <c r="F50" s="6">
-        <v>0</v>
-      </c>
-      <c r="G50" s="6">
-        <v>10000</v>
-      </c>
-      <c r="H50" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="I50" s="9">
-        <v>49</v>
-      </c>
-      <c r="J50" s="6">
-        <v>50</v>
-      </c>
-      <c r="K50" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="L50" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="M50" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>DC-8-XXXX-49/50</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A51" s="6">
-        <v>49</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>166</v>
-      </c>
-      <c r="D51" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="E51" s="6">
-        <v>835000</v>
-      </c>
-      <c r="F51" s="6">
-        <v>0</v>
-      </c>
-      <c r="G51" s="6">
-        <v>10000</v>
-      </c>
-      <c r="H51" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="I51" s="9">
-        <v>50</v>
-      </c>
-      <c r="J51" s="6">
-        <v>50</v>
-      </c>
-      <c r="K51" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="L51" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="M51" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>DC-8-XXXX-50/50</v>
+        <f t="shared" si="1"/>
+        <v>DC-8-XXXX-10/10</v>
       </c>
     </row>
   </sheetData>
@@ -60431,8 +58521,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -60567,13 +58657,13 @@
         <v>2</v>
       </c>
       <c r="L2" s="30" t="s">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="M2" s="27" t="s">
         <v>40</v>
       </c>
       <c r="N2" s="27" t="s">
-        <v>281</v>
+        <v>201</v>
       </c>
       <c r="O2" s="27">
         <v>0.1</v>
@@ -60588,7 +58678,7 @@
         <v>26</v>
       </c>
       <c r="S2" s="27" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="T2" s="27">
         <v>0.4</v>
@@ -60644,13 +58734,13 @@
         <v>2</v>
       </c>
       <c r="L3" s="30" t="s">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="M3" s="27" t="s">
         <v>40</v>
       </c>
       <c r="N3" s="27" t="s">
-        <v>281</v>
+        <v>201</v>
       </c>
       <c r="O3" s="27">
         <v>0.1</v>
@@ -60665,7 +58755,7 @@
         <v>26</v>
       </c>
       <c r="S3" s="27" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="T3" s="27">
         <v>2</v>
@@ -60721,13 +58811,13 @@
         <v>2</v>
       </c>
       <c r="L4" s="30" t="s">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="M4" s="27" t="s">
         <v>40</v>
       </c>
       <c r="N4" s="27" t="s">
-        <v>281</v>
+        <v>201</v>
       </c>
       <c r="O4" s="27">
         <v>0.1</v>
@@ -60742,7 +58832,7 @@
         <v>26</v>
       </c>
       <c r="S4" s="27" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="T4" s="27">
         <v>2.5</v>
@@ -60798,13 +58888,13 @@
         <v>2</v>
       </c>
       <c r="L5" s="30" t="s">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="M5" s="27" t="s">
         <v>40</v>
       </c>
       <c r="N5" s="27" t="s">
-        <v>281</v>
+        <v>201</v>
       </c>
       <c r="O5" s="27">
         <v>0.1</v>
@@ -60819,7 +58909,7 @@
         <v>26</v>
       </c>
       <c r="S5" s="27" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="T5" s="27">
         <v>2.9</v>
@@ -60875,13 +58965,13 @@
         <v>2</v>
       </c>
       <c r="L6" s="30" t="s">
-        <v>280</v>
+        <v>200</v>
       </c>
       <c r="M6" s="27" t="s">
         <v>40</v>
       </c>
       <c r="N6" s="27" t="s">
-        <v>281</v>
+        <v>201</v>
       </c>
       <c r="O6" s="27">
         <v>0.1</v>
@@ -60896,7 +58986,7 @@
         <v>26</v>
       </c>
       <c r="S6" s="27" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="T6" s="27">
         <v>4.2</v>
@@ -61087,7 +59177,7 @@
         <v>26</v>
       </c>
       <c r="S2" s="2" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="T2" s="2">
         <v>102.2</v>
@@ -61128,7 +59218,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>178</v>
+        <v>98</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
@@ -61136,7 +59226,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>179</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
@@ -61144,7 +59234,7 @@
         <v>2</v>
       </c>
       <c r="B5" t="s">
-        <v>180</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
@@ -61152,7 +59242,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="s">
-        <v>181</v>
+        <v>101</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -61160,7 +59250,7 @@
         <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>182</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
@@ -61168,7 +59258,7 @@
         <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>183</v>
+        <v>103</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -61176,7 +59266,7 @@
         <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>184</v>
+        <v>104</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -61184,7 +59274,7 @@
         <v>7</v>
       </c>
       <c r="B15" t="s">
-        <v>185</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -61192,7 +59282,7 @@
         <v>8</v>
       </c>
       <c r="B17" t="s">
-        <v>186</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -61200,7 +59290,7 @@
         <v>9</v>
       </c>
       <c r="B19" t="s">
-        <v>187</v>
+        <v>107</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -61208,7 +59298,7 @@
         <v>10</v>
       </c>
       <c r="B21" t="s">
-        <v>188</v>
+        <v>108</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -61216,7 +59306,7 @@
         <v>11</v>
       </c>
       <c r="B23" t="s">
-        <v>189</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -61224,7 +59314,7 @@
         <v>12</v>
       </c>
       <c r="B25" t="s">
-        <v>190</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -61232,7 +59322,7 @@
         <v>13</v>
       </c>
       <c r="B27" t="s">
-        <v>191</v>
+        <v>111</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -61240,7 +59330,7 @@
         <v>14</v>
       </c>
       <c r="B29" t="s">
-        <v>192</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -61248,7 +59338,7 @@
         <v>15</v>
       </c>
       <c r="B31" t="s">
-        <v>193</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -61256,57 +59346,57 @@
         <v>16</v>
       </c>
       <c r="B33" t="s">
-        <v>194</v>
+        <v>114</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>195</v>
+        <v>115</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>196</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>197</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>198</v>
+        <v>118</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>199</v>
+        <v>119</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>200</v>
+        <v>120</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>201</v>
+        <v>121</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>202</v>
+        <v>122</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>203</v>
+        <v>123</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>204</v>
+        <v>124</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -61314,12 +59404,12 @@
         <v>1</v>
       </c>
       <c r="B50" t="s">
-        <v>205</v>
+        <v>125</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>206</v>
+        <v>126</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
@@ -61327,7 +59417,7 @@
         <v>2</v>
       </c>
       <c r="B53" t="s">
-        <v>207</v>
+        <v>127</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
@@ -61335,7 +59425,7 @@
         <v>3</v>
       </c>
       <c r="B55" t="s">
-        <v>208</v>
+        <v>128</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -61343,17 +59433,17 @@
         <v>1</v>
       </c>
       <c r="B57" t="s">
-        <v>209</v>
+        <v>129</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>210</v>
+        <v>130</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>211</v>
+        <v>131</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
@@ -61361,22 +59451,22 @@
         <v>2</v>
       </c>
       <c r="B60" t="s">
-        <v>212</v>
+        <v>132</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>213</v>
+        <v>133</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>214</v>
+        <v>134</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>215</v>
+        <v>135</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
@@ -61384,12 +59474,12 @@
         <v>3</v>
       </c>
       <c r="B64" t="s">
-        <v>216</v>
+        <v>136</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>217</v>
+        <v>137</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
@@ -61397,7 +59487,7 @@
         <v>4</v>
       </c>
       <c r="B66" t="s">
-        <v>218</v>
+        <v>138</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
@@ -61405,22 +59495,22 @@
         <v>5</v>
       </c>
       <c r="B67" t="s">
-        <v>219</v>
+        <v>139</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>220</v>
+        <v>140</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>221</v>
+        <v>141</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>222</v>
+        <v>142</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
@@ -61428,7 +59518,7 @@
         <v>1</v>
       </c>
       <c r="B73" t="s">
-        <v>223</v>
+        <v>143</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
@@ -61436,7 +59526,7 @@
         <v>2</v>
       </c>
       <c r="B74" t="s">
-        <v>224</v>
+        <v>144</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
@@ -61444,7 +59534,7 @@
         <v>3</v>
       </c>
       <c r="B75" t="s">
-        <v>225</v>
+        <v>145</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
@@ -61452,39 +59542,39 @@
         <v>4</v>
       </c>
       <c r="B76" t="s">
-        <v>226</v>
+        <v>146</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>227</v>
+        <v>147</v>
       </c>
       <c r="B78" t="s">
-        <v>228</v>
+        <v>148</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>229</v>
+        <v>149</v>
       </c>
       <c r="B79" t="s">
-        <v>230</v>
+        <v>150</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>231</v>
+        <v>151</v>
       </c>
       <c r="B80" t="s">
-        <v>232</v>
+        <v>152</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>233</v>
+        <v>153</v>
       </c>
       <c r="B81" t="s">
-        <v>234</v>
+        <v>154</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
@@ -61492,7 +59582,7 @@
         <v>6</v>
       </c>
       <c r="B83" t="s">
-        <v>235</v>
+        <v>155</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
@@ -61500,7 +59590,7 @@
         <v>7</v>
       </c>
       <c r="B84" t="s">
-        <v>236</v>
+        <v>156</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
@@ -61508,54 +59598,54 @@
         <v>8</v>
       </c>
       <c r="B85" t="s">
-        <v>237</v>
+        <v>157</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>227</v>
+        <v>147</v>
       </c>
       <c r="B87" t="s">
-        <v>238</v>
+        <v>158</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>239</v>
+        <v>159</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>229</v>
+        <v>149</v>
       </c>
       <c r="B89" t="s">
-        <v>240</v>
+        <v>160</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>231</v>
+        <v>151</v>
       </c>
       <c r="B90" t="s">
-        <v>241</v>
+        <v>161</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>233</v>
+        <v>153</v>
       </c>
       <c r="B91" t="s">
-        <v>242</v>
+        <v>162</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>243</v>
+        <v>163</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>244</v>
+        <v>164</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
@@ -61563,7 +59653,7 @@
         <v>1</v>
       </c>
       <c r="B95" t="s">
-        <v>245</v>
+        <v>165</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
@@ -61571,7 +59661,7 @@
         <v>2</v>
       </c>
       <c r="B97" t="s">
-        <v>246</v>
+        <v>166</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
@@ -61579,7 +59669,7 @@
         <v>3</v>
       </c>
       <c r="B99" t="s">
-        <v>247</v>
+        <v>167</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
@@ -61587,7 +59677,7 @@
         <v>4</v>
       </c>
       <c r="B101" t="s">
-        <v>248</v>
+        <v>168</v>
       </c>
     </row>
   </sheetData>

--- a/AE Zaid/Bagerhat/2022-23/Protective Work Design/Sannashi to kanalia/Draft_Drawing/Sannashi_to_Khawlia_Input_selected.xlsx
+++ b/AE Zaid/Bagerhat/2022-23/Protective Work Design/Sannashi to kanalia/Draft_Drawing/Sannashi_to_Khawlia_Input_selected.xlsx
@@ -1286,7 +1286,7 @@
   <dimension ref="A1:T85"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
